--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_4_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_4_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2328292.807755559</v>
+        <v>-2330529.504172607</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3378326.849234221</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16326771.75622087</v>
+        <v>16353570.61531172</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>308.0474417319805</v>
+        <v>160.3086035115311</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>99.89962682134552</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>4.570297779667148</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +820,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>81.34678359874741</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>55.90301252244944</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>292.4950280298162</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -950,10 +950,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>151.262485652496</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>76.48464164091949</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>95.30104224937787</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>97.24299290992002</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>121.1158914498613</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>151.2756923576016</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>29.41204342723536</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>110.4096310406963</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>51.25302040845883</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>79.44183114688268</v>
       </c>
       <c r="T16" t="n">
-        <v>131.0976868917015</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>110.7079863900203</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>277.5987914854203</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>264.2235693311757</v>
       </c>
       <c r="V22" t="n">
-        <v>195.1220576977668</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C25" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E25" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789328984</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463127</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415164</v>
       </c>
       <c r="S25" t="n">
         <v>129.7889198539626</v>
@@ -2530,19 +2530,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U25" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689375</v>
       </c>
       <c r="V25" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W25" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X25" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522963</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885723</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2770,16 +2770,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X28" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T31" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689363</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415187</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3241,7 +3241,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941873</v>
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>237.1553589816771</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>69.57569953552809</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415164</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689363</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873208</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3594,13 +3594,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T39" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U39" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633448</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996198</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797664</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433872</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572825</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124558</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.9570160514543</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128494</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575767</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870202</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052355</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179985</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335023</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3831,13 +3831,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T42" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996198</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124548</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145474</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128492</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870204</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797664</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433872</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572825</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124556</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.9570160514548</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870204</v>
+        <v>218.1054622689361</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>882.0799113284818</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C2" t="n">
-        <v>513.11739438807</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>154.8516957813195</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>154.8516957813195</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>154.8516957813195</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2637.503939145011</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>2637.503939145011</v>
       </c>
       <c r="W2" t="n">
-        <v>1583.378275356799</v>
+        <v>2284.735283874897</v>
       </c>
       <c r="X2" t="n">
-        <v>1583.378275356799</v>
+        <v>1911.269525613817</v>
       </c>
       <c r="Y2" t="n">
-        <v>1193.238943380987</v>
+        <v>1911.269525613817</v>
       </c>
     </row>
     <row r="3">
@@ -4407,10 +4407,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598706</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>2300.904720758917</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>2150.788081346582</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>2150.788081346582</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>2150.788081346582</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="V4" t="n">
-        <v>671.6612947898188</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="W4" t="n">
-        <v>671.6612947898188</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="X4" t="n">
-        <v>443.6717438918015</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>2469.840903686824</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1317.778685247039</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="C5" t="n">
-        <v>1317.778685247039</v>
+        <v>516.7818851491245</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>516.7818851491245</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>516.7818851491245</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4598,19 +4598,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2094.517857286973</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2094.517857286973</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>2094.517857286973</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1704.378525311161</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4647,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>131.200195599071</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="C7" t="n">
-        <v>131.200195599071</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="D7" t="n">
-        <v>131.200195599071</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="E7" t="n">
-        <v>131.200195599071</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="F7" t="n">
-        <v>131.200195599071</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G7" t="n">
-        <v>131.200195599071</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406185</v>
+        <v>417.5768819848215</v>
       </c>
       <c r="X7" t="n">
-        <v>351.9927747426011</v>
+        <v>417.5768819848215</v>
       </c>
       <c r="Y7" t="n">
-        <v>131.200195599071</v>
+        <v>417.5768819848215</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>829.562656169633</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C8" t="n">
-        <v>460.6001392292213</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2543.89515618516</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2290.133370823251</v>
+        <v>2519.781117255926</v>
       </c>
       <c r="V8" t="n">
-        <v>1959.070483479681</v>
+        <v>2519.781117255926</v>
       </c>
       <c r="W8" t="n">
-        <v>1606.301828209567</v>
+        <v>2167.012461985812</v>
       </c>
       <c r="X8" t="n">
-        <v>1606.301828209567</v>
+        <v>2167.012461985812</v>
       </c>
       <c r="Y8" t="n">
-        <v>1216.162496233755</v>
+        <v>2167.012461985812</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761947</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C10" t="n">
-        <v>546.4805193761947</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D10" t="n">
-        <v>546.4805193761947</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E10" t="n">
-        <v>546.4805193761947</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>546.4805193761947</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="11">
@@ -5039,25 +5039,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>584.7466045204288</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C13" t="n">
-        <v>415.8104215925219</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D13" t="n">
-        <v>415.8104215925219</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1276.316287280641</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>987.1876484941987</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>987.1876484941987</v>
+        <v>623.236375353032</v>
       </c>
       <c r="W13" t="n">
-        <v>987.1876484941987</v>
+        <v>623.236375353032</v>
       </c>
       <c r="X13" t="n">
-        <v>987.1876484941987</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="Y13" t="n">
-        <v>766.3950693506686</v>
+        <v>395.2468244550147</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,16 +5276,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>592.8217113586352</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115524</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>413.0432218861031</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="C16" t="n">
-        <v>244.1070389581962</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1418.671996672162</v>
       </c>
       <c r="T16" t="n">
-        <v>1366.494364606689</v>
+        <v>1194.886581461668</v>
       </c>
       <c r="U16" t="n">
-        <v>1077.365725820247</v>
+        <v>905.7579426752263</v>
       </c>
       <c r="V16" t="n">
-        <v>822.6812376143602</v>
+        <v>905.7579426752263</v>
       </c>
       <c r="W16" t="n">
-        <v>822.6812376143602</v>
+        <v>616.3407726382658</v>
       </c>
       <c r="X16" t="n">
-        <v>594.6916867163428</v>
+        <v>616.3407726382658</v>
       </c>
       <c r="Y16" t="n">
-        <v>594.6916867163428</v>
+        <v>395.5481934947356</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5516,7 +5516,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5592,22 +5592,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.2714843595163</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3353014316094</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D19" t="n">
-        <v>377.2186620192737</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E19" t="n">
-        <v>377.2186620192737</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>377.2186620192737</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>209.0433403390943</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5698,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>1098.712528333286</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V19" t="n">
-        <v>1098.712528333286</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="W19" t="n">
-        <v>1098.712528333286</v>
+        <v>618.3896985665954</v>
       </c>
       <c r="X19" t="n">
-        <v>1098.712528333286</v>
+        <v>390.400147668578</v>
       </c>
       <c r="Y19" t="n">
-        <v>877.919949189756</v>
+        <v>390.400147668578</v>
       </c>
     </row>
     <row r="20">
@@ -5741,34 +5741,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619858</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1943.227873734288</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2463.528495470035</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>412.2823606383756</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C22" t="n">
-        <v>412.2823606383756</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D22" t="n">
-        <v>412.2823606383756</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5941,19 +5941,19 @@
         <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>898.7925182488382</v>
+        <v>921.0286627613651</v>
       </c>
       <c r="V22" t="n">
-        <v>701.6995306753363</v>
+        <v>666.3441745554783</v>
       </c>
       <c r="W22" t="n">
-        <v>412.2823606383756</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="X22" t="n">
-        <v>412.2823606383756</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="Y22" t="n">
-        <v>412.2823606383756</v>
+        <v>376.9270045185177</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805457</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,19 +6069,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229665</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F25" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G25" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H25" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K25" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L25" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M25" t="n">
         <v>1048.866260860496</v>
@@ -6166,16 +6166,16 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q25" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R25" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S25" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T25" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U25" t="n">
         <v>1489.892037025262</v>
@@ -6184,13 +6184,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W25" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="26">
@@ -6212,43 +6212,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231263</v>
@@ -6291,34 +6291,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115523</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H28" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>177.05035515254</v>
@@ -6388,7 +6388,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6418,16 +6418,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6549,7 +6549,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C31" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G31" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O31" t="n">
         <v>1688.186490350129</v>
@@ -6643,7 +6643,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
         <v>1865.165908942116</v>
@@ -6661,10 +6661,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
         <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.686330625496</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2345.518533956031</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>1976.55601701562</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1618.290318408869</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1232.502065810625</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>821.5161610210173</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>405.3903864859754</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>165.8395188277157</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>342.3056183942699</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>865.7084769632996</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1567.312633007098</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2364.588986726988</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3160.134107831019</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3866.157168855215</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4431.057134111018</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4778.051722419721</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4643.758424636692</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4433.169749547296</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4179.55500687073</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3848.492119527159</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3495.723464257045</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3122.257705995965</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2732.118374020153</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>985.7752020406868</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>811.3221727595599</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>662.3877630983086</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>503.150308092853</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>356.615750119738</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>219.6890717239233</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>123.744198155611</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>261.8822366007568</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>672.7725054452694</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L36" t="n">
-        <v>919.5376333517335</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M36" t="n">
-        <v>1226.857766631695</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N36" t="n">
-        <v>1556.720394295728</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O36" t="n">
-        <v>1836.260459514425</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>2326.808031048533</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2621.917448364247</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>2621.917448364247</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>2482.011343448021</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>2287.096727371799</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>2058.991802991186</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1823.839694759443</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>1569.602338031242</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>1361.750837825709</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>1153.990539060755</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>657.8041820989416</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C37" t="n">
-        <v>557.6880902110759</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D37" t="n">
-        <v>476.3915418387813</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E37" t="n">
-        <v>397.2985392964293</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F37" t="n">
-        <v>319.22868283856</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>219.8734521984216</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>138.2755347864059</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>175.3942981406485</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>393.0302736136042</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>708.1928898530775</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
-        <v>1047.210203848605</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1385.204884104496</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1686.530433338237</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1930.580769172264</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2036.864783372765</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1994.609770974632</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1863.509851930225</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1708.544527759772</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1488.235980013371</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1302.371582847525</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1081.774503850606</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>922.6050439926294</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>770.6325558891403</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563072</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1586.925993846824</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2120.457898518748</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>2667.236715577531</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3547.201365906985</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353931</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549551</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215057</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>667.028617841672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774095</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430897</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932525</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160448</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819758</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477366</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490196</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499223</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
-        <v>1191.409234901878</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1579.322996860149</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1925.157981032969</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>2204.270866719035</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123955</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
-        <v>2286.005723829557</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604457</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122056</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195773</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.56440093796</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849073</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899129</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036721</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089894</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>189.238303939012</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193591</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320245</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215052</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416716</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774092</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430893</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932523</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160446</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819757</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>187.1890521477366</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490196</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499225</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
-        <v>1191.409234901878</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1579.322996860149</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1925.157981032969</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>2204.270866719035</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123956</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>2286.005723829557</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604457</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122056</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195773</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.56440093796</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849072</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899128</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036713</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973194</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161924</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494857</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089893</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215053</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416717</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774092</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430893</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932522</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160447</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819758</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477366</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490196</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499223</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1191.409234901878</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1579.322996860149</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1925.157981032969</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>2204.270866719035</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829558</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1967.452490122057</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195774</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1518.56440093796</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849073</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899129</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036718</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>182.0340742867951</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,16 +9015,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>124.340078086323</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>96.03744927814716</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>73.64859338270685</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928318</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.409182577675</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>146.9555467112481</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>5.891030169484338</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,13 +10826,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>29.61882225792226</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10908,10 +10908,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11072,16 +11072,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11309,16 +11309,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>222.4252381519495</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,13 +22553,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>313.8845431994495</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22717,10 +22717,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>85.9630186603035</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>111.137930017693</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>200.8846229153692</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>118.4789788367206</v>
       </c>
       <c r="T16" t="n">
-        <v>90.44987416668778</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>38.20584197751579</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23950,13 +23950,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>8.924206851170652</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>22.01378306740168</v>
       </c>
       <c r="V22" t="n">
-        <v>57.01558562606115</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1377566.007956822</v>
+        <v>1377566.007956823</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1377566.007956823</v>
+        <v>1377566.007956822</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1444160.351870628</v>
+        <v>1444812.804877616</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1430181.515727497</v>
+        <v>1444812.804877616</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1430181.515727497</v>
+        <v>1444812.804877616</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1430181.515727497</v>
+        <v>1444812.804877616</v>
       </c>
     </row>
   </sheetData>
@@ -26326,16 +26326,16 @@
         <v>19551.45298688543</v>
       </c>
       <c r="G2" t="n">
-        <v>19551.45298688543</v>
+        <v>19551.45298688544</v>
       </c>
       <c r="H2" t="n">
         <v>19551.45298688544</v>
       </c>
       <c r="I2" t="n">
-        <v>20526.04424660711</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.04424660711</v>
+        <v>20526.04424660712</v>
       </c>
       <c r="K2" t="n">
         <v>20526.04424660709</v>
@@ -26344,13 +26344,13 @@
         <v>20526.04424660709</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="N2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="P2" t="n">
         <v>20526.0442466071</v>
@@ -26372,34 +26372,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="H3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>54505.5121037125</v>
+      </c>
+      <c r="J3" t="n">
+        <v>176423.2191925929</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>134801.0152338372</v>
+      </c>
+      <c r="N3" t="n">
         <v>54505.51210371251</v>
-      </c>
-      <c r="J3" t="n">
-        <v>176423.219192593</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>129642.3148389448</v>
-      </c>
-      <c r="N3" t="n">
-        <v>216643.6227495942</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>125767.3623801285</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218262</v>
@@ -26427,37 +26427,37 @@
         <v>29303.54555230237</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230235</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230235</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>51722.3327936228</v>
+        <v>51722.33279362281</v>
       </c>
       <c r="J4" t="n">
+        <v>51722.33279362282</v>
+      </c>
+      <c r="K4" t="n">
+        <v>51722.33279362282</v>
+      </c>
+      <c r="L4" t="n">
+        <v>51722.33279362282</v>
+      </c>
+      <c r="M4" t="n">
+        <v>51722.33279362282</v>
+      </c>
+      <c r="N4" t="n">
+        <v>51722.33279362283</v>
+      </c>
+      <c r="O4" t="n">
+        <v>51722.33279362281</v>
+      </c>
+      <c r="P4" t="n">
         <v>51722.33279362279</v>
-      </c>
-      <c r="K4" t="n">
-        <v>51722.3327936228</v>
-      </c>
-      <c r="L4" t="n">
-        <v>51722.33279362281</v>
-      </c>
-      <c r="M4" t="n">
-        <v>54709.97259871801</v>
-      </c>
-      <c r="N4" t="n">
-        <v>30134.53761950705</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30134.53761950706</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30134.53761950703</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26482,34 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="J5" t="n">
         <v>97715.10582002538</v>
-      </c>
-      <c r="J5" t="n">
-        <v>97715.10582002539</v>
       </c>
       <c r="K5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="N5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="M5" t="n">
-        <v>96456.5024909879</v>
-      </c>
-      <c r="N5" t="n">
-        <v>100332.6710141021</v>
-      </c>
-      <c r="O5" t="n">
-        <v>100332.6710141021</v>
-      </c>
       <c r="P5" t="n">
-        <v>100332.6710141021</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-780202.3953102622</v>
+        <v>-780415.8073001408</v>
       </c>
       <c r="C6" t="n">
         <v>-236823.8111386285</v>
@@ -26528,16 +26528,16 @@
         <v>-236823.8111386286</v>
       </c>
       <c r="E6" t="n">
-        <v>-626899.4549910296</v>
+        <v>-626996.9141170018</v>
       </c>
       <c r="F6" t="n">
-        <v>-101739.4185141335</v>
+        <v>-101836.8776401057</v>
       </c>
       <c r="G6" t="n">
-        <v>-101739.4185141335</v>
+        <v>-101836.8776401057</v>
       </c>
       <c r="H6" t="n">
-        <v>-101739.4185141335</v>
+        <v>-101836.8776401057</v>
       </c>
       <c r="I6" t="n">
         <v>-183416.9064707536</v>
@@ -26552,16 +26552,16 @@
         <v>-128911.3943670411</v>
       </c>
       <c r="M6" t="n">
-        <v>-260282.7456820436</v>
+        <v>-263712.4096008783</v>
       </c>
       <c r="N6" t="n">
-        <v>-326584.7871365963</v>
+        <v>-183416.9064707537</v>
       </c>
       <c r="O6" t="n">
-        <v>-109941.1643870021</v>
+        <v>-128911.3943670411</v>
       </c>
       <c r="P6" t="n">
-        <v>-109941.164387002</v>
+        <v>-128911.3943670411</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964062</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859259</v>
-      </c>
-      <c r="P2" t="n">
-        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,34 +26750,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="O3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="K3" t="n">
+      <c r="P3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1089.776700593298</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1089.776700593298</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26820,16 +26820,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1194.51293060493</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1194.51293060493</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1194.51293060493</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1194.51293060493</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26920,28 +26920,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.842170943040401e-14</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.97513661859255</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>259.3942951391978</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74.68639993150003</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>246.6538697286221</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27588,22 +27588,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>196.2346308013786</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>114.3810177118953</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,10 +27670,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>176.4897728176389</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>79.68624720087566</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>191.2219560872131</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>119.2053274477378</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>130.108276058428</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>16.03410990144934</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>196.2976119618018</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30001,10 +30001,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>12.20343551721265</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859254</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859254</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859254</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859254</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859254</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859254</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859254</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859254</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859254</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859254</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859254</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859254</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859254</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859254</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859254</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859254</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859254</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859254</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859254</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859254</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859254</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859254</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859254</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859254</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
   </sheetData>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -35015,7 +35015,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>332.6095128747343</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
@@ -35735,16 +35735,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>457.5346514843358</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>345.2951542341714</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36218,7 +36218,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>161.661626167781</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K25" t="n">
         <v>219.8343186595512</v>
@@ -36528,10 +36528,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O25" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P25" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q25" t="n">
         <v>107.3575901015154</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875336993</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36768,7 +36768,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q28" t="n">
         <v>107.3575901015154</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37005,7 +37005,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>249.2369534806823</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>485.2089366502542</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509644</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165873</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
-        <v>253.022796162912</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887906</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564862</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282446</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165881</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629122</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564862</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282437</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165875</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
